--- a/LF/PreTAS/Guinnée Bissau/gw_lf_pretas_2_partcipants_202206.xlsx
+++ b/LF/PreTAS/Guinnée Bissau/gw_lf_pretas_2_partcipants_202206.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="83">
   <si>
     <t>type</t>
   </si>
@@ -24,16 +24,10 @@
     <t>name</t>
   </si>
   <si>
-    <t>label::English</t>
-  </si>
-  <si>
-    <t>hint::English</t>
-  </si>
-  <si>
-    <t>label::French</t>
-  </si>
-  <si>
-    <t>hint::French</t>
+    <t>label::Portuguese</t>
+  </si>
+  <si>
+    <t>hint::Portuguese</t>
   </si>
   <si>
     <t>appearance</t>
@@ -42,10 +36,7 @@
     <t>constraint</t>
   </si>
   <si>
-    <t>constraint_message::English</t>
-  </si>
-  <si>
-    <t>constraint_message::French</t>
+    <t>constraint_message::Portuguese</t>
   </si>
   <si>
     <t>relevant</t>
@@ -72,25 +63,16 @@
     <t>p_recorderID</t>
   </si>
   <si>
-    <t>Enter Recorder ID</t>
-  </si>
-  <si>
-    <t>If you are the only recorder on your team, this may be called a "team ID". Recorder ID is the 2-digit code assigned to you or your team.</t>
-  </si>
-  <si>
-    <t>Entrer l'identifiant de l'enregistreur</t>
-  </si>
-  <si>
-    <t>Si vous êtes le seul enregistreur de votre équipe, cela peut être appelé un "identifiant d'équipe". L'identifiant de l'enregistreur est un code à 2 chiffres qui a été attribué à vous ou à votre équipe.</t>
+    <t>Insira o ID do inqueridor</t>
+  </si>
+  <si>
+    <t>Se você for o único registrador/inqueridor na sua equipa, isso pode ser chamado de "ID de equipa". ID do inqueridor é o código de 2 dígitos fornecido a você ou à sua equipa.</t>
   </si>
   <si>
     <t>regex(.,'^[0-9]{2}$')</t>
   </si>
   <si>
-    <t>The code must be a two-digit number between 9 and 100</t>
-  </si>
-  <si>
-    <t>Le code doit être un nombre à deux chiffres entre 9 et 100</t>
+    <t>O código deve ser um número de dois algarismos entre 9 e 100</t>
   </si>
   <si>
     <t>yes</t>
@@ -99,31 +81,28 @@
     <t>string</t>
   </si>
   <si>
-    <t>p_districrt</t>
-  </si>
-  <si>
-    <t>Select your district</t>
-  </si>
-  <si>
-    <t>Sélectionner le district</t>
+    <t>p_region</t>
+  </si>
+  <si>
+    <t>Selecione a região</t>
+  </si>
+  <si>
+    <t>p_district</t>
+  </si>
+  <si>
+    <t>Selecione o distrito</t>
   </si>
   <si>
     <t>p_cluster_name</t>
   </si>
   <si>
-    <t>Select your school name</t>
-  </si>
-  <si>
-    <t>Sélectionner votre école</t>
+    <t>Selecione o local</t>
   </si>
   <si>
     <t>p_cluster_id</t>
   </si>
   <si>
-    <t>Select your school id</t>
-  </si>
-  <si>
-    <t>Sélectionner le code de votre école</t>
+    <t>Selecione o código do site</t>
   </si>
   <si>
     <t>select_one yes_no</t>
@@ -132,10 +111,7 @@
     <t>p_consent</t>
   </si>
   <si>
-    <t>Does respondent provide consent?</t>
-  </si>
-  <si>
-    <t>Le répondant a-t-il donné son consentement?</t>
+    <t>O entrevistado deu o  consentimento?</t>
   </si>
   <si>
     <t>select_one sex_list</t>
@@ -144,49 +120,34 @@
     <t>p_sex</t>
   </si>
   <si>
-    <t>Sex of respondent</t>
-  </si>
-  <si>
-    <t>Sexe du participant</t>
-  </si>
-  <si>
-    <t>${p_consent} = 'Yes'</t>
+    <t>Sexo do entrevistado</t>
+  </si>
+  <si>
+    <t>${p_consent} = 'Sim'</t>
   </si>
   <si>
     <t>p_age_yrs</t>
   </si>
   <si>
-    <t>Enter age in years</t>
-  </si>
-  <si>
-    <t>Entrer l'âge du participant (en années)</t>
-  </si>
-  <si>
-    <t>. &gt;= 5 and . &lt;= 9</t>
-  </si>
-  <si>
-    <t>The age must be between 5 and 9 years</t>
-  </si>
-  <si>
-    <t>L'age doit être compris entre 5 et 9 ans</t>
+    <t>Introduza a idade em anos</t>
+  </si>
+  <si>
+    <t>. &gt;= 5 and . &lt;= 14</t>
+  </si>
+  <si>
+    <t>A idade deve ser entre 5 e 14 anos</t>
   </si>
   <si>
     <t>p_how_long_lived</t>
   </si>
   <si>
-    <t>How many years has the respondent lived in the area?</t>
-  </si>
-  <si>
-    <t>Depuis combien d'années le participant habite-t-il dans la communauté?</t>
+    <t>Há quantos anos o entrevistado vive na área?</t>
   </si>
   <si>
     <t>. &lt;= ${p_age_yrs}</t>
   </si>
   <si>
-    <t>The value must not be greater than the age</t>
-  </si>
-  <si>
-    <t>La valeur ne doit pas être supérieure à l'âge</t>
+    <t>O valor não deve ser superior à idade</t>
   </si>
   <si>
     <t>select_one id_list</t>
@@ -195,10 +156,7 @@
     <t>p_IDMethod</t>
   </si>
   <si>
-    <t>How will the individual's unique ID be generated?</t>
-  </si>
-  <si>
-    <t>Comment l'ID unique de l'individu sera-t-il généré?</t>
+    <t>Como será gerada a identificação única do indivíduo?</t>
   </si>
   <si>
     <t>barcode</t>
@@ -207,28 +165,19 @@
     <t>p_BarcodeID</t>
   </si>
   <si>
-    <t>Scan barcode now</t>
-  </si>
-  <si>
-    <t>Scanner le code-barres maintenant</t>
-  </si>
-  <si>
-    <t>${p_IDMethod} = 'Scanner' and ${p_consent} = 'Yes'</t>
+    <t>Digitalize agora o código de barras</t>
+  </si>
+  <si>
+    <t>${p_IDMethod} = 'Scanner' and ${p_consent} = 'Sim'</t>
   </si>
   <si>
     <t>p_GenerateID</t>
   </si>
   <si>
-    <t>Please record the following unique ID code for the respondent on a separate list and on each diagnostic test(s) administered</t>
-  </si>
-  <si>
-    <t>Veuiller enregistrer le code d'identification unique du participant qui apparait sur une liste séparée et sur chaque test de diagnostic administré</t>
-  </si>
-  <si>
-    <t>${p_IDMethod} = 'ID_generation' and ${p_consent} = 'Yes'</t>
-  </si>
-  <si>
-    <t>concat(${p_cluster_id},'-',substr(random(),3,10))</t>
+    <t>Registar o seguinte código de identificação único para o respondente numa lista separada e em cada teste(s) de diagnóstico administrado(s)</t>
+  </si>
+  <si>
+    <t>${p_IDMethod} = 'ID_generation' and ${p_consent} = 'Sim'</t>
   </si>
   <si>
     <t>note</t>
@@ -237,13 +186,10 @@
     <t>p_ending_survey_note</t>
   </si>
   <si>
-    <t>You just entered a value that will end the survey</t>
-  </si>
-  <si>
-    <t>Vous vener de saisir une valeur qui mettra fin à l'enquête</t>
-  </si>
-  <si>
-    <t>${p_consent} = 'No'</t>
+    <t>Você acabou de inserir um valor que encerrará a inquerito</t>
+  </si>
+  <si>
+    <t>${p_consent} = 'Nao'</t>
   </si>
   <si>
     <t>text</t>
@@ -252,10 +198,7 @@
     <t>p_notes</t>
   </si>
   <si>
-    <t>Additional Notes</t>
-  </si>
-  <si>
-    <t>Notes complémentaires</t>
+    <t>Notas adicionais</t>
   </si>
   <si>
     <t>start</t>
@@ -276,31 +219,22 @@
     <t>yes_no</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Oui</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Non</t>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>Nao</t>
+  </si>
+  <si>
+    <t>Não</t>
   </si>
   <si>
     <t>sex_list</t>
   </si>
   <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Masculin</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Féminin</t>
+    <t>Masculino</t>
+  </si>
+  <si>
+    <t>Feminino</t>
   </si>
   <si>
     <t>id_list</t>
@@ -312,10 +246,7 @@
     <t>ID_generation</t>
   </si>
   <si>
-    <t>Automatic ID generation</t>
-  </si>
-  <si>
-    <t>Génération automatique</t>
+    <t>Geração automática</t>
   </si>
   <si>
     <t>form_title</t>
@@ -327,13 +258,13 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>(Jun 2022) Pre TAS FL - 2. Formulaire Participants</t>
-  </si>
-  <si>
-    <t>gw_lf_pretas_2_partcipants_202206</t>
-  </si>
-  <si>
-    <t>French</t>
+    <t>(Jun 2022) 8. Pre TAS1 FL - Formulário de participantes V2</t>
+  </si>
+  <si>
+    <t>gw_lf_pretas_2_partcipants_202206_v2</t>
+  </si>
+  <si>
+    <t>Portuguese</t>
   </si>
 </sst>
 </file>
@@ -341,10 +272,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -404,6 +335,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -412,10 +364,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -427,21 +403,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -450,6 +411,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -458,20 +426,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -488,45 +442,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -539,8 +456,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -549,43 +480,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFCCECFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,13 +588,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,140 +670,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -785,6 +710,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -814,30 +769,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -882,145 +813,154 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1030,7 +970,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1047,7 +987,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1066,6 +1005,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1083,19 +1025,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1427,526 +1359,457 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="19.6222222222222" customWidth="1"/>
     <col min="2" max="2" width="16.5037037037037" customWidth="1"/>
-    <col min="3" max="3" width="42.6222222222222" customWidth="1"/>
-    <col min="4" max="4" width="41.2518518518519" customWidth="1"/>
-    <col min="5" max="5" width="47.5037037037037" customWidth="1"/>
-    <col min="6" max="6" width="47.3777777777778" customWidth="1"/>
-    <col min="7" max="7" width="12.6222222222222" customWidth="1"/>
-    <col min="8" max="8" width="16.8740740740741" customWidth="1"/>
-    <col min="9" max="10" width="29.5037037037037" customWidth="1"/>
-    <col min="11" max="11" width="20.3777777777778" customWidth="1"/>
-    <col min="12" max="12" width="39.8740740740741" customWidth="1"/>
-    <col min="13" max="13" width="9.74814814814815" customWidth="1"/>
-    <col min="14" max="14" width="35.3777777777778" customWidth="1"/>
-    <col min="15" max="15" width="13.8740740740741" customWidth="1"/>
-    <col min="16" max="16" width="36.6222222222222" customWidth="1"/>
+    <col min="3" max="3" width="47.5037037037037" customWidth="1"/>
+    <col min="4" max="4" width="47.3777777777778" customWidth="1"/>
+    <col min="5" max="5" width="12.6222222222222" customWidth="1"/>
+    <col min="6" max="6" width="16.8740740740741" customWidth="1"/>
+    <col min="7" max="7" width="29.5037037037037" customWidth="1"/>
+    <col min="8" max="8" width="20.3777777777778" customWidth="1"/>
+    <col min="9" max="9" width="39.8740740740741" customWidth="1"/>
+    <col min="10" max="10" width="9.74814814814815" customWidth="1"/>
+    <col min="11" max="11" width="35.3777777777778" customWidth="1"/>
+    <col min="12" max="12" width="13.8740740740741" customWidth="1"/>
+    <col min="13" max="13" width="36.6222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="18" spans="1:16">
-      <c r="A1" s="10" t="s">
+    <row r="1" s="3" customFormat="1" ht="36" spans="1:13">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="10" t="s">
+    </row>
+    <row r="2" s="3" customFormat="1" ht="42.75" spans="1:13">
+      <c r="A2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="C2" s="13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" s="3" customFormat="1" ht="57" spans="1:16">
-      <c r="A2" s="12" t="s">
+      <c r="D2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="G2" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="12" t="s">
         <v>19</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="27" t="s">
-        <v>24</v>
       </c>
       <c r="K2" s="16"/>
       <c r="L2" s="16"/>
-      <c r="M2" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="12"/>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:16">
-      <c r="A3" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
+      <c r="M2" s="11"/>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:13">
+      <c r="A3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="K3" s="16"/>
       <c r="L3" s="16"/>
-      <c r="M3" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="12"/>
-    </row>
-    <row r="4" s="3" customFormat="1" spans="1:16">
-      <c r="A4" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>30</v>
+      <c r="M3" s="11"/>
+    </row>
+    <row r="4" s="3" customFormat="1" spans="1:13">
+      <c r="A4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
+        <v>24</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="K4" s="16"/>
       <c r="L4" s="16"/>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="11"/>
+    </row>
+    <row r="5" s="3" customFormat="1" spans="1:13">
+      <c r="A5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="12"/>
-    </row>
-    <row r="5" s="3" customFormat="1" spans="1:15">
-      <c r="A5" s="3" t="s">
+      <c r="C5" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="D5" s="13"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="11"/>
+    </row>
+    <row r="6" s="3" customFormat="1" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+    </row>
+    <row r="7" s="3" customFormat="1" spans="1:13">
+      <c r="A7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+    </row>
+    <row r="8" s="3" customFormat="1" spans="1:13">
+      <c r="A8" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C8" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15" t="s">
+      <c r="D8" s="13"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-    </row>
-    <row r="6" s="3" customFormat="1" spans="1:16">
-      <c r="A6" s="12" t="s">
+      <c r="I8" s="12"/>
+      <c r="J8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+    </row>
+    <row r="9" s="8" customFormat="1" ht="15.75" customHeight="1" spans="1:13">
+      <c r="A9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="C9" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="D9" s="13"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="23" t="s">
+      <c r="G9" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-    </row>
-    <row r="7" s="3" customFormat="1" spans="1:16">
-      <c r="A7" s="12" t="s">
+      <c r="H9" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+    </row>
+    <row r="10" s="3" customFormat="1" ht="28.5" spans="1:13">
+      <c r="A10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="C10" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="D10" s="13"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="23" t="s">
+      <c r="G10" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="13" t="s">
+      <c r="H10" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="16"/>
+      <c r="J10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+    </row>
+    <row r="11" s="3" customFormat="1" spans="1:13">
+      <c r="A11" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-    </row>
-    <row r="8" s="9" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
-      <c r="A8" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="17" t="s">
+      <c r="B11" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C11" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="23" t="s">
+      <c r="D11" s="18"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+    </row>
+    <row r="12" s="3" customFormat="1" spans="1:13">
+      <c r="A12" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13" t="s">
+      <c r="B12" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="C12" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="D12" s="18"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="K8" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-    </row>
-    <row r="9" s="3" customFormat="1" ht="28.5" spans="1:16">
-      <c r="A9" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="13" t="s">
+      <c r="I12" s="11"/>
+      <c r="J12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+    </row>
+    <row r="13" s="3" customFormat="1" ht="42.75" spans="1:13">
+      <c r="A13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C13" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="23" t="s">
+      <c r="D13" s="18"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16" t="s">
+      <c r="I13" s="11"/>
+      <c r="J13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" s="3" customFormat="1" ht="28.5" spans="1:13">
+      <c r="A14" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="B14" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="C14" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="K9" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="L9" s="16"/>
-      <c r="M9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-    </row>
-    <row r="10" s="3" customFormat="1" spans="1:16">
-      <c r="A10" s="12" t="s">
+      <c r="D14" s="18"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="I14" s="11"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+    </row>
+    <row r="15" s="3" customFormat="1" spans="1:13">
+      <c r="A15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="B15" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="25" t="s">
+      <c r="C15" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="25"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10" s="12"/>
-      <c r="M10" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-    </row>
-    <row r="11" s="3" customFormat="1" spans="1:16">
-      <c r="A11" s="12" t="s">
+      <c r="D15" s="18"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+    </row>
+    <row r="16" s="3" customFormat="1" spans="1:13">
+      <c r="A16" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B16" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="25" t="s">
+      <c r="B17" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="L11" s="12"/>
-      <c r="M11" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-    </row>
-    <row r="12" s="3" customFormat="1" ht="42.75" spans="1:16">
-      <c r="A12" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="M12" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" s="3" customFormat="1" ht="28.5" spans="1:16">
-      <c r="A13" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="L13" s="12"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-    </row>
-    <row r="14" s="3" customFormat="1" spans="1:16">
-      <c r="A14" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-    </row>
-    <row r="15" s="3" customFormat="1" spans="1:16">
-      <c r="A15" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1958,25 +1821,24 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="16.3777777777778" customWidth="1"/>
     <col min="2" max="2" width="39.6222222222222" customWidth="1"/>
-    <col min="3" max="3" width="23.7481481481481" customWidth="1"/>
-    <col min="4" max="4" width="20.8740740740741" customWidth="1"/>
+    <col min="3" max="3" width="20.8740740740741" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -1984,93 +1846,72 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="5" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="5" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="6" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="6" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2094,29 +1935,29 @@
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="49.6222222222222" customWidth="1"/>
-    <col min="2" max="2" width="28.6222222222222" customWidth="1"/>
+    <col min="2" max="2" width="33.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/LF/PreTAS/Guinnée Bissau/gw_lf_pretas_2_partcipants_202206.xlsx
+++ b/LF/PreTAS/Guinnée Bissau/gw_lf_pretas_2_partcipants_202206.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="500" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -132,10 +132,10 @@
     <t>Introduza a idade em anos</t>
   </si>
   <si>
-    <t>. &gt;= 5 and . &lt;= 14</t>
-  </si>
-  <si>
-    <t>A idade deve ser entre 5 e 14 anos</t>
+    <t>. &gt;= 9 and . &lt;= 14</t>
+  </si>
+  <si>
+    <t>A idade deve ser entre 9 e 14 anos</t>
   </si>
   <si>
     <t>p_how_long_lived</t>
@@ -272,9 +272,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="26">
@@ -320,6 +320,142 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -329,142 +465,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -486,31 +486,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,151 +660,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,21 +725,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -774,6 +759,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -799,21 +814,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -825,148 +825,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1361,12 +1361,12 @@
   <sheetPr/>
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1928,7 +1928,7 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/LF/PreTAS/Guinnée Bissau/gw_lf_pretas_2_partcipants_202206.xlsx
+++ b/LF/PreTAS/Guinnée Bissau/gw_lf_pretas_2_partcipants_202206.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -258,10 +258,10 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>(Jun 2022) 8. Pre TAS1 FL - Formulário de participantes V2</t>
-  </si>
-  <si>
-    <t>gw_lf_pretas_2_partcipants_202206_v2</t>
+    <t>(Jun 2022) 8. Pre TAS1 FL - Formulário de participantes V2.1</t>
+  </si>
+  <si>
+    <t>gw_lf_pretas_2_partcipants_202206_v2_1</t>
   </si>
   <si>
     <t>Portuguese</t>
@@ -273,8 +273,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="26">
@@ -320,6 +320,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -328,7 +336,120 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,133 +464,12 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -486,13 +486,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,169 +666,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,25 +725,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -754,6 +741,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -788,6 +784,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -802,171 +822,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1361,7 +1361,7 @@
   <sheetPr/>
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -1928,8 +1928,8 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>

--- a/LF/PreTAS/Guinnée Bissau/gw_lf_pretas_2_partcipants_202206.xlsx
+++ b/LF/PreTAS/Guinnée Bissau/gw_lf_pretas_2_partcipants_202206.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="500" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -132,10 +132,10 @@
     <t>Introduza a idade em anos</t>
   </si>
   <si>
-    <t>. &gt;= 9 and . &lt;= 14</t>
-  </si>
-  <si>
-    <t>A idade deve ser entre 9 e 14 anos</t>
+    <t>. &gt;= 5</t>
+  </si>
+  <si>
+    <t>A idade deve ser entre 5 e120 anos</t>
   </si>
   <si>
     <t>p_how_long_lived</t>
@@ -272,10 +272,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -335,22 +335,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,7 +383,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -379,29 +428,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -409,23 +435,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -434,30 +443,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,6 +456,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -486,187 +486,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,22 +725,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -750,21 +745,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -787,23 +767,43 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -825,142 +825,142 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1361,7 +1361,7 @@
   <sheetPr/>
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -1928,7 +1928,7 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/LF/PreTAS/Guinnée Bissau/gw_lf_pretas_2_partcipants_202206.xlsx
+++ b/LF/PreTAS/Guinnée Bissau/gw_lf_pretas_2_partcipants_202206.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -258,10 +258,10 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>(Jun 2022) 8. Pre TAS1 FL - Formulário de participantes V2.1</t>
-  </si>
-  <si>
-    <t>gw_lf_pretas_2_partcipants_202206_v2_1</t>
+    <t>(Aug 2022) 8. Pre TAS FL - Formulário de participantes  (Phase 2)</t>
+  </si>
+  <si>
+    <t>gw_lf_pretas_2_partcipants_202208_phase2</t>
   </si>
   <si>
     <t>Portuguese</t>
@@ -272,10 +272,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -320,6 +320,112 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -328,16 +434,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,124 +458,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -492,181 +492,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,6 +750,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -764,26 +779,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -802,129 +808,123 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -933,40 +933,40 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1361,7 +1361,7 @@
   <sheetPr/>
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -1928,14 +1928,14 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="49.6222222222222" customWidth="1"/>
-    <col min="2" max="2" width="33.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="58.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="43.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
